--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -99,7 +99,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright JED-Project、日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>Copyright JED-Project 一般社団法人 日本消化器内視鏡学会</t>
   </si>
   <si>
     <t>Case Sensitive</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -90,7 +90,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>日本消化器内視鏡学会が推進するJED (Japan Endoscopy Database) Projectのコード値セット</t>
+    <t>日本消化器内視鏡学会が推進するJED (Japan Endoscopy Database) Projectで定義されるコードシステム</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -2484,7 +2484,7 @@
     <t>Z1610002</t>
   </si>
   <si>
-    <t xml:space="preserve">手技後偶発症 </t>
+    <t>手技後偶発症</t>
   </si>
   <si>
     <t>Z1610003</t>
@@ -2502,7 +2502,7 @@
     <t>Z2A10000</t>
   </si>
   <si>
-    <t xml:space="preserve">[頭頚部] 部位 </t>
+    <t>[頭頚部] 部位</t>
   </si>
   <si>
     <t>Z2A20000</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -12359,10 +12359,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -12359,10 +12359,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.392.200270.4.1000.1</t>
+    <t>id: &lt;a href="http://terminology.hl7.org/5.3.0/NamingSystem-uri.html"&gt;Uniform Resource Identifier (URI)&lt;/a&gt;#urn:oid:1.2.392.200270.4.1000.1</t>
   </si>
   <si>
     <t>Version</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: &lt;a href="http://terminology.hl7.org/5.3.0/NamingSystem-uri.html"&gt;Uniform Resource Identifier (URI)&lt;/a&gt;#urn:oid:1.2.392.200270.4.1000.1</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:1.2.392.200270.4.1000.1</t>
   </si>
   <si>
     <t>Version</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: Uniform Resource Identifier (URI)#urn:oid:1.2.392.200270.4.1000.1</t>
+    <t>urn:ietf:rfc:3986#Uniform Resource Identifier (URI)#urn:oid:1.2.392.200270.4.1000.1</t>
   </si>
   <si>
     <t>Version</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>urn:ietf:rfc:3986#Uniform Resource Identifier (URI)#urn:oid:1.2.392.200270.4.1000.1</t>
+    <t>OID:1.2.392.200270.4.1000.1</t>
   </si>
   <si>
     <t>Version</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -78,7 +78,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>
